--- a/data/trans_bre/P1421-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1421-Provincia-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.962009400195717</v>
+        <v>-2.076857239574813</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.974684879385022</v>
+        <v>3.123636217531869</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.291748470377883</v>
+        <v>4.312783892526713</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.633051176005754</v>
+        <v>4.230444729244722</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4716983898167487</v>
+        <v>-0.4643379116589218</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9086938282400107</v>
+        <v>0.8105213261001265</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>1.372732405838728</v>
+        <v>1.549607305740065</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.6283092368051849</v>
+        <v>0.7752218763968949</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.862974077082064</v>
+        <v>5.29184221598685</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.48868927024579</v>
+        <v>10.57332461570128</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.35430263806125</v>
+        <v>11.50314823515911</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.86491761443262</v>
+        <v>11.62290262350113</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.435359257483345</v>
+        <v>2.978251691711681</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>12.90648816660787</v>
+        <v>16.31868345382326</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>33.54204328094972</v>
+        <v>30.93102248874371</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5.952607621618015</v>
+        <v>6.577597349401102</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.67458282449071</v>
+        <v>5.67268379601858</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.726548985533181</v>
+        <v>1.814844919456706</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.277386125202773</v>
+        <v>1.362499621668123</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.074496407254748</v>
+        <v>3.228990217013252</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>3.387763212169068</v>
+        <v>2.857158522290228</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4694550114429054</v>
+        <v>0.4451925847206646</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7033437445628588</v>
+        <v>0.5471601648806906</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2870489029480218</v>
+        <v>0.3389811527560947</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.60894006850394</v>
+        <v>10.81335478207196</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.05286483622405</v>
+        <v>6.154414856291459</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.869862436583816</v>
+        <v>4.777692674362392</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10.78189758315504</v>
+        <v>10.74920573257353</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>39.61326910552835</v>
+        <v>40.40131729883658</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>22.70931634407549</v>
+        <v>17.79727759193519</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>25.90510839962932</v>
+        <v>22.05640686467303</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.186237035176526</v>
+        <v>2.223692716575916</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.484053912561429</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.722979474826197</v>
+        <v>7.722979474826198</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.096899107618063</v>
@@ -860,26 +860,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.4467696548145695</v>
+        <v>-0.601605683253307</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3038519258866707</v>
+        <v>0.3514980653003087</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.645294047355239</v>
+        <v>1.665242283821907</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.165806645398803</v>
+        <v>4.251162399107019</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3000185988600332</v>
+        <v>-0.2850593854345576</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02569672225498467</v>
+        <v>-0.08888446928204563</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>0.5685844731638922</v>
+        <v>0.5992735500888037</v>
       </c>
     </row>
     <row r="12">
@@ -890,26 +890,26 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.942912100390784</v>
+        <v>4.991414959427401</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.23235353900122</v>
+        <v>5.568981934451471</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.126568889473036</v>
+        <v>6.390171785633133</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.39062541936408</v>
+        <v>11.76758955464966</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>5.549162642205839</v>
+        <v>5.624852772549268</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>8.22415710907392</v>
+        <v>10.18484382575473</v>
       </c>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>3.46081874766127</v>
+        <v>3.734581861188027</v>
       </c>
     </row>
     <row r="13">
@@ -956,28 +956,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.07234260389141625</v>
+        <v>0.06967340327020489</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>4.62938283818729</v>
+        <v>4.40143249713212</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.695248880090071</v>
+        <v>2.632863264233365</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.338494178250163</v>
+        <v>2.455108870650758</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.158704711841468</v>
+        <v>-0.1359376190954401</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.478723017963351</v>
+        <v>1.558773139006297</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7772294334267005</v>
+        <v>0.7620852303950203</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.510423174120363</v>
+        <v>0.5282686784164345</v>
       </c>
     </row>
     <row r="15">
@@ -988,28 +988,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.986505726411317</v>
+        <v>5.09193050799807</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>11.13836362060335</v>
+        <v>10.69201079407839</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.290663709685445</v>
+        <v>9.181330484571209</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.558850352794845</v>
+        <v>7.221648367578354</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6.072963361598103</v>
+        <v>5.758430780768802</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>15.32613720640414</v>
+        <v>15.22656947959447</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>10.08164511727271</v>
+        <v>8.819221076539321</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>6.933740106966711</v>
+        <v>6.295625629398701</v>
       </c>
     </row>
     <row r="16">
@@ -1033,7 +1033,7 @@
         <v>6.499140136119533</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6.520363141961772</v>
+        <v>6.52036314196177</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1.139799404849411</v>
@@ -1056,28 +1056,26 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.221063085621743</v>
+        <v>-0.8557180912180231</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.096461915568688</v>
+        <v>5.280163397446434</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.628287181733151</v>
+        <v>2.201567234922304</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.527046247356052</v>
-      </c>
-      <c r="G17" s="6" t="n">
-        <v>-0.7346067728734317</v>
-      </c>
+        <v>2.573506953619386</v>
+      </c>
+      <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="n">
-        <v>1.241415800686327</v>
+        <v>1.411018896760361</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4900369186309643</v>
+        <v>0.2432047633046099</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3029816547201729</v>
+        <v>0.3004575048528723</v>
       </c>
     </row>
     <row r="18">
@@ -1088,26 +1086,24 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.651302345878683</v>
+        <v>5.056895828325146</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.63441712028631</v>
+        <v>13.79440571908361</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.16610733415809</v>
+        <v>11.12143682826912</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.4169896980645</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>8.623980461168198</v>
-      </c>
+        <v>10.40030873056144</v>
+      </c>
+      <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="inlineStr"/>
       <c r="I18" s="6" t="n">
-        <v>10.82052953518471</v>
+        <v>10.514516086782</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3.202605258910456</v>
+        <v>3.286484079090168</v>
       </c>
     </row>
     <row r="19">
@@ -1131,7 +1127,7 @@
         <v>3.752287953299238</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8.422418217810947</v>
+        <v>8.422418217810948</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7705792151175328</v>
@@ -1143,7 +1139,7 @@
         <v>1.714529391009388</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1.344505703362594</v>
+        <v>1.344505703362595</v>
       </c>
     </row>
     <row r="20">
@@ -1154,28 +1150,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.9388551962560467</v>
+        <v>-1.137337724073668</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.1260752442859032</v>
+        <v>-0.01835182754986127</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.37104647556176</v>
+        <v>0.4465420248033636</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4.406452248880771</v>
+        <v>4.204995921648119</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2990309405110293</v>
+        <v>-0.279661117379889</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2129364568308373</v>
+        <v>-0.20028872805919</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.03875062263941634</v>
+        <v>-0.03588653888623132</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.4728151440968316</v>
+        <v>0.477930744109779</v>
       </c>
     </row>
     <row r="21">
@@ -1186,28 +1182,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.511174193987626</v>
+        <v>6.148954901676064</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>6.184794535522537</v>
+        <v>5.725087919017206</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.242485471344463</v>
+        <v>7.349471212519827</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13.06418583493275</v>
+        <v>13.20333422023512</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.046019775579475</v>
+        <v>3.265873427238481</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>7.76138178539961</v>
+        <v>7.10099539299618</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>7.706721759685033</v>
+        <v>8.508734448389331</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.691613082406418</v>
+        <v>2.850226381395534</v>
       </c>
     </row>
     <row r="22">
@@ -1254,28 +1250,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2953710755177663</v>
+        <v>0.2402842231559578</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.183367462246752</v>
+        <v>1.296085535254899</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.552744647223489</v>
+        <v>1.413329461702376</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6.094186328945698</v>
+        <v>5.904284667129483</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.06896646935815945</v>
+        <v>-0.01071449985213466</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4925324246275937</v>
+        <v>0.4539231511293594</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.389986081012873</v>
+        <v>0.4213984507059558</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.6295047854687</v>
+        <v>0.6254522613333079</v>
       </c>
     </row>
     <row r="24">
@@ -1286,28 +1282,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.846039488242619</v>
+        <v>3.990744916327613</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.928743416773534</v>
+        <v>4.966718338246682</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.839834350257934</v>
+        <v>5.775569338420562</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.63268131646669</v>
+        <v>12.49680669723758</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>3.548757860741387</v>
+        <v>3.715901376076443</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>6.075368113003676</v>
+        <v>6.15369746391024</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>4.10409744085951</v>
+        <v>3.923945694521513</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>2.255176662011123</v>
+        <v>2.246538861824928</v>
       </c>
     </row>
     <row r="25">
@@ -1331,7 +1327,7 @@
         <v>2.900536709010757</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3.830536418724941</v>
+        <v>3.830536418724943</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.9503053929612388</v>
@@ -1343,7 +1339,7 @@
         <v>2.57525725480665</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>2.80287661344636</v>
+        <v>2.802876613446361</v>
       </c>
     </row>
     <row r="26">
@@ -1354,28 +1350,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.44165230001584</v>
+        <v>1.430383382772022</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>1.494176295434938</v>
+        <v>1.535568705238294</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.40266979200757</v>
+        <v>1.314745113324788</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2.117202262374655</v>
+        <v>2.163214923943037</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2482613473214163</v>
+        <v>0.2847061844093134</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.078928734012879</v>
+        <v>1.210703291826712</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7412401126684254</v>
+        <v>0.7923603305110513</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.9789444254217038</v>
+        <v>0.7959551163062085</v>
       </c>
     </row>
     <row r="27">
@@ -1386,28 +1382,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>6.249924601482996</v>
+        <v>6.029958579077149</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>4.187475995968043</v>
+        <v>4.228405305293113</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4.614196808849314</v>
+        <v>4.755007076983513</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5.614963264195045</v>
+        <v>5.33367392631598</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.036123363210098</v>
+        <v>2.081834630025288</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>19.52038599040815</v>
+        <v>25.28342691437423</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>7.722057658448812</v>
+        <v>7.804735660153958</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>7.623457826420958</v>
+        <v>6.277741578002728</v>
       </c>
     </row>
     <row r="28">
@@ -1431,7 +1427,7 @@
         <v>4.082477248479535</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>6.785681299856648</v>
+        <v>6.785681299856651</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>1.408251630538734</v>
@@ -1443,7 +1439,7 @@
         <v>2.894470558639184</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>1.493821638293782</v>
+        <v>1.493821638293783</v>
       </c>
     </row>
     <row r="29">
@@ -1454,28 +1450,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.447970098363352</v>
+        <v>2.423151167320943</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.394476592198504</v>
+        <v>3.328112150210438</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.200146506489047</v>
+        <v>3.181142740535169</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5.620772240123621</v>
+        <v>5.596683857670957</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.8789519741815138</v>
+        <v>0.8569405149580871</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>2.245024725026977</v>
+        <v>2.07967582395347</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>1.807348131666951</v>
+        <v>1.789077677433805</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>1.068743620038442</v>
+        <v>1.081990950250203</v>
       </c>
     </row>
     <row r="30">
@@ -1486,28 +1482,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.403493296839384</v>
+        <v>4.336309759323199</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.055860145158227</v>
+        <v>5.030234502691891</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.043470888281668</v>
+        <v>4.980835962457676</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>7.886505677781913</v>
+        <v>8.005450020439463</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2.188522408353982</v>
+        <v>2.095033957855034</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>5.201882051625645</v>
+        <v>5.191785532078029</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>4.466664084211034</v>
+        <v>4.470510179876672</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1.972109682783299</v>
+        <v>1.986850231014415</v>
       </c>
     </row>
     <row r="31">
